--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDD51F0-3787-4CF5-8F4A-BEE55613CD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7018E6F6-C481-4C91-B900-320867DE7CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>JobId</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>Java Backend Engineer</t>
@@ -65,9 +62,6 @@
 - Excellent written and verbal communication skills.</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Frontend Developer</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>Build intuitive UIs using React, TailwindCSS, and REST APIs.</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>UI/UX Designer</t>
   </si>
   <si>
@@ -87,6 +78,12 @@
   </si>
   <si>
     <t>Design user-friendly interfaces with modern UX principles.</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Manage daily tasks and office tasks</t>
   </si>
 </sst>
 </file>
@@ -429,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,46 +453,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7018E6F6-C481-4C91-B900-320867DE7CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807EAD85-7F1D-487D-8D94-C09A81B54124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>JobId</t>
   </si>
@@ -83,7 +83,16 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>Manage daily tasks and office tasks</t>
+    <t>QA Engineer</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Test and deliver quality products.</t>
+  </si>
+  <si>
+    <t>Manage daily tasks and office tasks.</t>
   </si>
 </sst>
 </file>
@@ -426,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +515,21 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807EAD85-7F1D-487D-8D94-C09A81B54124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E319130-87CB-469F-B644-84CDCCF5AA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,16 +83,24 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>QA Engineer</t>
-  </si>
-  <si>
     <t>Chennai</t>
   </si>
   <si>
-    <t>Test and deliver quality products.</t>
-  </si>
-  <si>
     <t>Manage daily tasks and office tasks.</t>
+  </si>
+  <si>
+    <t>Service Now Developer</t>
+  </si>
+  <si>
+    <t>Test and deliver quality products.Mange Service now taksRequirements:
+- Bachelor’s or Master’s degree in Computer Science, Engineering, or a related field.
+- 3+ years of experience developing backend applications using Java and Spring Boot.
+- Strong understanding of RESTful API design, HTTP protocol, and stateless architecture.
+- Experience with databases like MongoDB, MySQL, or PostgreSQL.
+- Familiarity with containerization technologies such as Docker and orchestration tools like Kubernetes is a plus.
+- Understanding of software design patterns, data structures, and algorithms.
+- Strong problem-solving and analytical thinking skills.
+- Excellent written and verbal communication skills.</t>
   </si>
 </sst>
 </file>
@@ -515,21 +523,21 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E319130-87CB-469F-B644-84CDCCF5AA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85148FB-ABF6-4361-BD8C-66BE4F2077BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>JobId</t>
   </si>
@@ -83,24 +83,7 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>Chennai</t>
-  </si>
-  <si>
     <t>Manage daily tasks and office tasks.</t>
-  </si>
-  <si>
-    <t>Service Now Developer</t>
-  </si>
-  <si>
-    <t>Test and deliver quality products.Mange Service now taksRequirements:
-- Bachelor’s or Master’s degree in Computer Science, Engineering, or a related field.
-- 3+ years of experience developing backend applications using Java and Spring Boot.
-- Strong understanding of RESTful API design, HTTP protocol, and stateless architecture.
-- Experience with databases like MongoDB, MySQL, or PostgreSQL.
-- Familiarity with containerization technologies such as Docker and orchestration tools like Kubernetes is a plus.
-- Understanding of software design patterns, data structures, and algorithms.
-- Strong problem-solving and analytical thinking skills.
-- Excellent written and verbal communication skills.</t>
   </si>
 </sst>
 </file>
@@ -523,22 +506,11 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85148FB-ABF6-4361-BD8C-66BE4F2077BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>JobId</t>
   </si>
@@ -83,13 +77,25 @@
     <t>Admin</t>
   </si>
   <si>
+    <t>QA Engineer</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Test and deliver quality products.</t>
+  </si>
+  <si>
     <t>Manage daily tasks and office tasks.</t>
+  </si>
+  <si>
+    <t>Python Developer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,21 +431,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="117.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="4" max="4" width="117.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="360" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -467,7 +473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -481,7 +487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -495,7 +501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -506,11 +512,33 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanka\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEB53C5-422C-4549-9850-4417DB5EC7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>JobId</t>
   </si>
@@ -55,47 +61,11 @@
 - Strong problem-solving and analytical thinking skills.
 - Excellent written and verbal communication skills.</t>
   </si>
-  <si>
-    <t>Frontend Developer</t>
-  </si>
-  <si>
-    <t>Remote</t>
-  </si>
-  <si>
-    <t>Build intuitive UIs using React, TailwindCSS, and REST APIs.</t>
-  </si>
-  <si>
-    <t>UI/UX Designer</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>Design user-friendly interfaces with modern UX principles.</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>QA Engineer</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Test and deliver quality products.</t>
-  </si>
-  <si>
-    <t>Manage daily tasks and office tasks.</t>
-  </si>
-  <si>
-    <t>Python Developer</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,11 +401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +415,7 @@
     <col min="4" max="4" width="117.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,71 +443,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanka\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEB53C5-422C-4549-9850-4417DB5EC7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608AE089-7A93-4B73-B99A-670FBBA25DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,26 +443,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanka\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608AE089-7A93-4B73-B99A-670FBBA25DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>JobId</t>
   </si>
@@ -34,38 +28,25 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Java Backend Engineer</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>We are looking for a highly motivated and experienced Java Backend Engineer to join our fast-growing engineering team. As a backend engineer, you will play a crucial role in designing, developing, and maintaining scalable server-side applications that power our products and services. You will collaborate closely with front-end developers, product managers, and DevOps to deliver high-performance and resilient systems.
-Responsibilities:
-- Design and implement RESTful APIs and microservices using Spring Boot and Java 17.
-- Work with MongoDB, PostgreSQL, or MySQL to build efficient, scalable data models.
-- Implement security and data protection standards following industry best practices.
-- Optimize application performance, scalability, and reliability across services.
-- Integrate third-party APIs and services where needed (e.g., payment gateways, messaging services).
-- Write unit, integration, and performance tests to ensure system quality.
-- Participate in code reviews and contribute to continuous improvement in coding standards and practices.
-- Collaborate with DevOps to ensure smooth CI/CD pipelines and automated deployments.
-- Work in an Agile environment and actively participate in sprint planning, retrospectives, and daily stand-ups.
-Requirements:
-- Bachelor’s or Master’s degree in Computer Science, Engineering, or a related field.
-- 3+ years of experience developing backend applications using Java and Spring Boot.
-- Strong understanding of RESTful API design, HTTP protocol, and stateless architecture.
-- Experience with databases like MongoDB, MySQL, or PostgreSQL.
-- Familiarity with containerization technologies such as Docker and orchestration tools like Kubernetes is a plus.
-- Understanding of software design patterns, data structures, and algorithms.
-- Strong problem-solving and analytical thinking skills.
-- Excellent written and verbal communication skills.</t>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>Lead requirements gathering, create user stories, drive business process consulting efforts.</t>
+  </si>
+  <si>
+    <t>QA Analyst</t>
+  </si>
+  <si>
+    <t>Condusct functional and regression testing across ServiceNow module, write test cases.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,11 +382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,7 +410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="360" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -441,6 +422,20 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanka\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D6FAF7-2CA0-4B63-B5C2-CF182AE7DF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>JobId</t>
   </si>
@@ -28,25 +34,39 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Business Analyst</t>
+    <t xml:space="preserve">We are looking for a dynamic Business Analyst with 5–7 years of experience who can operate at an intermediate to senior level.
+Lead requirements gathering
+Drive business process analysis and consulting efforts to deliver effective solutions
+Translate business needs into clear and actionable user stories and documentation
+</t>
   </si>
   <si>
     <t>Remote</t>
   </si>
   <si>
-    <t>Lead requirements gathering, create user stories, drive business process consulting efforts.</t>
+    <t>Business Analyst(BPT)</t>
+  </si>
+  <si>
+    <t>Experience: 3–6 Years | Intermediate Level
+Perform functional and regression testing across various ServiceNow modules
+Ensure solution quality through effective test planning and execution</t>
   </si>
   <si>
     <t>QA Analyst</t>
   </si>
   <si>
-    <t>Condusct functional and regression testing across ServiceNow module, write test cases.</t>
+    <t>Infra Engineer(On-prem setup)</t>
+  </si>
+  <si>
+    <t>Responsible for the installation, configuration, and ongoing maintenance of self-hosted ServiceNow instances and MID Servers
+Ensure optimal performance, availability, and reliability of the platform infrastructure
+Manage upgrades, patching, and environment tuning for enterprise-scale ServiceNow deployments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,11 +402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,32 +430,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanka\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D6FAF7-2CA0-4B63-B5C2-CF182AE7DF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>JobId</t>
   </si>
@@ -62,15 +56,323 @@
 Ensure optimal performance, availability, and reliability of the platform infrastructure
 Manage upgrades, patching, and environment tuning for enterprise-scale ServiceNow deployments</t>
   </si>
+  <si>
+    <t>QA Engineer</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We make ML based products that predict upcoming issues in complex applications running in cloud-native, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">serverless or host-based environments. Products handle very high volumes of streaming data, and perform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">complex learnings on structured and unstructured data in near real time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirement </t>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ideal candidate would be skilled in understanding product architectures in terms of key modules, and </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">passionate about building high performance product test harness. </t>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2-5+ years of relevant experience as a Software Developer in Test. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Python knowledge is mandatory. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Experience in creating test automation frameworks (PyTest, robot framework, cucumber) is also mandatory. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">API, UI and DB automation is preferrable. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Strong knowledge of software QA methodologies, tools, and processes. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Understand requirements and write test cases/test scenario, execute and automate them. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Experience of Testing Methodologies (Performance testing, Black Box, White Box, Grey Box). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hands-on experience on Unix Operating systems (LINUX, Solaris, AIX) and preferably Windows. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Certification in Testing will be added advantage. (ISTQB, CAST, CSTE). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Experience enabling CI/CD in SaaS environment will be a plus. </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,10 +398,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,11 +707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,7 +777,100 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>JobId</t>
   </si>
@@ -343,12 +343,102 @@
       <t xml:space="preserve">Experience enabling CI/CD in SaaS environment will be a plus. </t>
     </r>
   </si>
+  <si>
+    <t>Core Java Developer</t>
+  </si>
+  <si>
+    <t>Pune/Bangalore</t>
+  </si>
+  <si>
+    <t>Job Title: Senior Engineer – Software Development (Core Java)</t>
+  </si>
+  <si>
+    <t>Location: Pune/Bangalore</t>
+  </si>
+  <si>
+    <t>Experience: 4+ Years</t>
+  </si>
+  <si>
+    <t>Duration: Full time</t>
+  </si>
+  <si>
+    <t>Job Description:</t>
+  </si>
+  <si>
+    <t>Our clients include banks, telecom, IT, and mid- sized Enterprises across the globe. We are predominantly working with Banking clients Top Private &amp; Public Sector Banks in India and Overseas (Middle east, Africa, South east regions). We have over 50 happy customers and we plan to increase our customer base to 500+ in the next 24 to 36 months.</t>
+  </si>
+  <si>
+    <t>Design, develop, and maintain Java-based applications, ensuring optimal performance, reliability, and scalability.</t>
+  </si>
+  <si>
+    <t>Write clean, efficient, and well-documented code following industry best practices and coding standards.</t>
+  </si>
+  <si>
+    <t>Participate in the entire software development lifecycle, including requirements analysis, design, implementation, testing, deployment, and support.</t>
+  </si>
+  <si>
+    <t>Collaborate with product managers, business analysts, and other stakeholders to understand requirements and translate them into technical solutions.</t>
+  </si>
+  <si>
+    <t>Conduct code reviews, provide constructive feedback, and mentor junior team members to promote continuous improvement and knowledge sharing.</t>
+  </si>
+  <si>
+    <t>Troubleshoot and debug issues reported by clients or detected during testing, and implement timely and effective solutions.</t>
+  </si>
+  <si>
+    <t>Work closely with QA engineers to ensure the quality of software deliverables through thorough testing and validation.</t>
+  </si>
+  <si>
+    <t>Contribute to architectural design discussions and decisions and participate in team technical discussions.</t>
+  </si>
+  <si>
+    <t>Collaborate with DevOps engineers to automate deployment processes and enhance system monitoring and performance optimization.</t>
+  </si>
+  <si>
+    <t>Skill Requirement</t>
+  </si>
+  <si>
+    <t>The ideal candidate should have passion for building products, solving problems, and building data pipeline.</t>
+  </si>
+  <si>
+    <t>Proficiency in version 8 and higher Java.</t>
+  </si>
+  <si>
+    <t>Experience in Clojure, Scala or Java, knowledge of Spark, Flink.</t>
+  </si>
+  <si>
+    <t>The basics must be very strong - design, coding, testing, and debugging skills.</t>
+  </si>
+  <si>
+    <t>Proficiency in web application development using Java-based technologies (Servlets, JSP, etc.).</t>
+  </si>
+  <si>
+    <t>Familiarity with relational databases (e.g., MySQL, PostgreSQL) and proficiency in SQL.</t>
+  </si>
+  <si>
+    <t>BS in CS/EE/CE or related field from a top institution</t>
+  </si>
+  <si>
+    <t>4+ years hands-on experience in Java, data structures and algorithms on Linux</t>
+  </si>
+  <si>
+    <t>Experience/knowledge with Microservices, Docker, Kubernetes, agile methodologies and tools (e.g., Scrum, JIRA) experience is a plus</t>
+  </si>
+  <si>
+    <t>Familiarity with cloud platforms (e.g., AWS, Azure) and microservices architecture is desirable.</t>
+  </si>
+  <si>
+    <t>A demonstrable understanding of software development concepts, problem break down, project management, and good communication.</t>
+  </si>
+  <si>
+    <t>Experience will product build life cycle of developing, debugging, optimizing and maintaining code. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +467,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1E53A3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -398,13 +496,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,30 +951,197 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D21" s="2" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D38" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D44" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D45" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D46" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
